--- a/dictionary_for_hospital_admission_data.xlsx
+++ b/dictionary_for_hospital_admission_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalida\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalida\Desktop\AMASSv2.0.16_20221020\AMASSv2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA301D-C9D0-4759-B3AB-0AA4DF7CFE64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98337BF-BC8F-4B81-B110-20B799FC4FCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="6910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
